--- a/nfl_games_all.xlsx
+++ b/nfl_games_all.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulcalvetti/Documents/15.053/git_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B576CF51-38C8-1440-9652-3BEE711B2528}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6945D7-7B9B-CB47-BABA-CBD5484F21F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{7D8FC689-8E7E-7349-AD7C-041B30E253EE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="1" xr2:uid="{7D8FC689-8E7E-7349-AD7C-041B30E253EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2019 Games" sheetId="1" r:id="rId1"/>
-    <sheet name="2018 Games" sheetId="2" r:id="rId2"/>
+    <sheet name="2019 Odds" sheetId="3" r:id="rId2"/>
+    <sheet name="2018 Games" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_2019_nfl_games" localSheetId="0">'2019 Games'!$A$1:$A$269</definedName>
+    <definedName name="_2019_nfl_games" localSheetId="0">'2019 Games'!$A$1:$A$257</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,15 +42,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="40">
   <si>
     <t>Week</t>
-  </si>
-  <si>
-    <t>Winner/tie</t>
-  </si>
-  <si>
-    <t>Loser/tie</t>
   </si>
   <si>
     <t>PtsW</t>
@@ -154,23 +149,26 @@
     <t>Denver Broncos</t>
   </si>
   <si>
-    <t>WildCard</t>
+    <t>Loser</t>
   </si>
   <si>
-    <t>Division</t>
+    <t>Winner</t>
   </si>
   <si>
-    <t>ConfChamp</t>
+    <t>Super Bowl Odds</t>
   </si>
   <si>
-    <t>SuperBowl</t>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Expected Wins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,6 +179,21 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -207,12 +220,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -533,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16453B16-9B44-854B-AF88-3FE494977917}">
-  <dimension ref="A1:E269"/>
+  <dimension ref="A1:E257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="C258" sqref="C258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -551,16 +572,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -568,10 +589,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -585,10 +606,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>43</v>
@@ -602,10 +623,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>28</v>
@@ -619,10 +640,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>32</v>
@@ -636,10 +657,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -653,10 +674,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>17</v>
@@ -670,10 +691,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>40</v>
@@ -687,10 +708,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>59</v>
@@ -704,10 +725,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>30</v>
@@ -721,10 +742,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>21</v>
@@ -738,10 +759,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>35</v>
@@ -755,10 +776,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>27</v>
@@ -772,10 +793,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>31</v>
@@ -789,10 +810,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>33</v>
@@ -806,10 +827,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>30</v>
@@ -823,10 +844,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>24</v>
@@ -840,10 +861,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>20</v>
@@ -857,10 +878,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>19</v>
@@ -874,10 +895,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20">
         <v>41</v>
@@ -891,10 +912,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>43</v>
@@ -908,10 +929,10 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D22">
         <v>28</v>
@@ -925,10 +946,10 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>31</v>
@@ -942,10 +963,10 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24">
         <v>13</v>
@@ -959,10 +980,10 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>21</v>
@@ -976,10 +997,10 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <v>13</v>
@@ -993,10 +1014,10 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D27">
         <v>28</v>
@@ -1010,10 +1031,10 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28">
         <v>23</v>
@@ -1027,10 +1048,10 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1044,10 +1065,10 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30">
         <v>27</v>
@@ -1061,10 +1082,10 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D31">
         <v>16</v>
@@ -1078,10 +1099,10 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>24</v>
@@ -1095,10 +1116,10 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33">
         <v>23</v>
@@ -1112,10 +1133,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>20</v>
@@ -1129,10 +1150,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D35">
         <v>30</v>
@@ -1146,10 +1167,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D36">
         <v>21</v>
@@ -1163,10 +1184,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D37">
         <v>27</v>
@@ -1180,10 +1201,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D38">
         <v>33</v>
@@ -1197,10 +1218,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D39">
         <v>31</v>
@@ -1214,10 +1235,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40">
         <v>27</v>
@@ -1231,10 +1252,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D41">
         <v>27</v>
@@ -1248,10 +1269,10 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D42">
         <v>34</v>
@@ -1265,10 +1286,10 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D43">
         <v>38</v>
@@ -1282,10 +1303,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D44">
         <v>32</v>
@@ -1299,10 +1320,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D45">
         <v>27</v>
@@ -1316,10 +1337,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D46">
         <v>33</v>
@@ -1333,10 +1354,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D47">
         <v>24</v>
@@ -1350,10 +1371,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D48">
         <v>20</v>
@@ -1367,10 +1388,10 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D49">
         <v>31</v>
@@ -1384,10 +1405,10 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50">
         <v>34</v>
@@ -1401,10 +1422,10 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D51">
         <v>16</v>
@@ -1418,10 +1439,10 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D52">
         <v>24</v>
@@ -1435,10 +1456,10 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D53">
         <v>31</v>
@@ -1452,10 +1473,10 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D54">
         <v>16</v>
@@ -1469,10 +1490,10 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D55">
         <v>30</v>
@@ -1486,10 +1507,10 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D56">
         <v>40</v>
@@ -1503,10 +1524,10 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D57">
         <v>34</v>
@@ -1520,10 +1541,10 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D58">
         <v>24</v>
@@ -1537,10 +1558,10 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D59">
         <v>27</v>
@@ -1554,10 +1575,10 @@
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D60">
         <v>55</v>
@@ -1571,10 +1592,10 @@
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D61">
         <v>16</v>
@@ -1588,10 +1609,10 @@
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D62">
         <v>26</v>
@@ -1605,10 +1626,10 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D63">
         <v>12</v>
@@ -1622,10 +1643,10 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D64">
         <v>27</v>
@@ -1639,10 +1660,10 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D65">
         <v>30</v>
@@ -1656,10 +1677,10 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D66">
         <v>31</v>
@@ -1673,10 +1694,10 @@
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D67">
         <v>28</v>
@@ -1690,10 +1711,10 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D68">
         <v>53</v>
@@ -1707,10 +1728,10 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D69">
         <v>33</v>
@@ -1724,10 +1745,10 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D70">
         <v>24</v>
@@ -1741,10 +1762,10 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D71">
         <v>34</v>
@@ -1758,10 +1779,10 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D72">
         <v>31</v>
@@ -1775,10 +1796,10 @@
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D73">
         <v>26</v>
@@ -1792,10 +1813,10 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D74">
         <v>14</v>
@@ -1809,10 +1830,10 @@
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D75">
         <v>26</v>
@@ -1826,10 +1847,10 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D76">
         <v>20</v>
@@ -1843,10 +1864,10 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D77">
         <v>34</v>
@@ -1860,10 +1881,10 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D78">
         <v>19</v>
@@ -1877,10 +1898,10 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D79">
         <v>31</v>
@@ -1894,10 +1915,10 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C80" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D80">
         <v>35</v>
@@ -1911,10 +1932,10 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D81">
         <v>37</v>
@@ -1928,10 +1949,10 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D82">
         <v>17</v>
@@ -1945,10 +1966,10 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
         <v>9</v>
-      </c>
-      <c r="C83" t="s">
-        <v>11</v>
       </c>
       <c r="D83">
         <v>38</v>
@@ -1962,10 +1983,10 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D84">
         <v>31</v>
@@ -1979,10 +2000,10 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D85">
         <v>32</v>
@@ -1996,10 +2017,10 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D86">
         <v>13</v>
@@ -2013,10 +2034,10 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C87" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D87">
         <v>23</v>
@@ -2030,10 +2051,10 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D88">
         <v>20</v>
@@ -2047,10 +2068,10 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D89">
         <v>34</v>
@@ -2064,10 +2085,10 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D90">
         <v>16</v>
@@ -2081,10 +2102,10 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D91">
         <v>24</v>
@@ -2098,10 +2119,10 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D92">
         <v>24</v>
@@ -2115,10 +2136,10 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D93">
         <v>23</v>
@@ -2132,10 +2153,10 @@
         <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D94">
         <v>30</v>
@@ -2149,10 +2170,10 @@
         <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D95">
         <v>31</v>
@@ -2166,10 +2187,10 @@
         <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D96">
         <v>42</v>
@@ -2183,10 +2204,10 @@
         <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D97">
         <v>30</v>
@@ -2200,10 +2221,10 @@
         <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D98">
         <v>9</v>
@@ -2217,10 +2238,10 @@
         <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D99">
         <v>42</v>
@@ -2234,10 +2255,10 @@
         <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D100">
         <v>27</v>
@@ -2251,10 +2272,10 @@
         <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C101" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D101">
         <v>27</v>
@@ -2268,10 +2289,10 @@
         <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D102">
         <v>37</v>
@@ -2285,10 +2306,10 @@
         <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D103">
         <v>23</v>
@@ -2302,10 +2323,10 @@
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D104">
         <v>36</v>
@@ -2319,10 +2340,10 @@
         <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C105" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D105">
         <v>30</v>
@@ -2336,10 +2357,10 @@
         <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C106" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D106">
         <v>37</v>
@@ -2353,10 +2374,10 @@
         <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D107">
         <v>33</v>
@@ -2370,10 +2391,10 @@
         <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D108">
         <v>19</v>
@@ -2387,10 +2408,10 @@
         <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D109">
         <v>17</v>
@@ -2404,10 +2425,10 @@
         <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C110" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D110">
         <v>15</v>
@@ -2421,10 +2442,10 @@
         <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D111">
         <v>31</v>
@@ -2438,10 +2459,10 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C112" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D112">
         <v>31</v>
@@ -2455,10 +2476,10 @@
         <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C113" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D113">
         <v>27</v>
@@ -2472,10 +2493,10 @@
         <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D114">
         <v>27</v>
@@ -2489,10 +2510,10 @@
         <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D115">
         <v>24</v>
@@ -2506,10 +2527,10 @@
         <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D116">
         <v>29</v>
@@ -2523,10 +2544,10 @@
         <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D117">
         <v>31</v>
@@ -2540,10 +2561,10 @@
         <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D118">
         <v>51</v>
@@ -2557,10 +2578,10 @@
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D119">
         <v>27</v>
@@ -2574,10 +2595,10 @@
         <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D120">
         <v>27</v>
@@ -2591,10 +2612,10 @@
         <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D121">
         <v>31</v>
@@ -2608,10 +2629,10 @@
         <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D122">
         <v>27</v>
@@ -2625,10 +2646,10 @@
         <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D123">
         <v>28</v>
@@ -2642,10 +2663,10 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D124">
         <v>26</v>
@@ -2659,10 +2680,10 @@
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D125">
         <v>22</v>
@@ -2676,10 +2697,10 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D126">
         <v>30</v>
@@ -2693,10 +2714,10 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D127">
         <v>26</v>
@@ -2710,10 +2731,10 @@
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C128" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D128">
         <v>26</v>
@@ -2727,10 +2748,10 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D129">
         <v>24</v>
@@ -2744,10 +2765,10 @@
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D130">
         <v>26</v>
@@ -2761,10 +2782,10 @@
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D131">
         <v>31</v>
@@ -2778,10 +2799,10 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C132" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D132">
         <v>40</v>
@@ -2795,10 +2816,10 @@
         <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D133">
         <v>24</v>
@@ -2812,10 +2833,10 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D134">
         <v>26</v>
@@ -2829,10 +2850,10 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D135">
         <v>37</v>
@@ -2846,10 +2867,10 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C136" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D136">
         <v>37</v>
@@ -2863,10 +2884,10 @@
         <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C137" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D137">
         <v>26</v>
@@ -2880,10 +2901,10 @@
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D138">
         <v>26</v>
@@ -2897,10 +2918,10 @@
         <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D139">
         <v>20</v>
@@ -2914,10 +2935,10 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C140" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D140">
         <v>49</v>
@@ -2931,10 +2952,10 @@
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D141">
         <v>19</v>
@@ -2948,10 +2969,10 @@
         <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D142">
         <v>35</v>
@@ -2965,10 +2986,10 @@
         <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D143">
         <v>30</v>
@@ -2982,10 +3003,10 @@
         <v>10</v>
       </c>
       <c r="B144" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C144" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D144">
         <v>34</v>
@@ -2999,10 +3020,10 @@
         <v>10</v>
       </c>
       <c r="B145" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" t="s">
         <v>20</v>
-      </c>
-      <c r="C145" t="s">
-        <v>22</v>
       </c>
       <c r="D145">
         <v>16</v>
@@ -3016,10 +3037,10 @@
         <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C146" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D146">
         <v>17</v>
@@ -3033,10 +3054,10 @@
         <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C147" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D147">
         <v>24</v>
@@ -3050,10 +3071,10 @@
         <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D148">
         <v>28</v>
@@ -3067,10 +3088,10 @@
         <v>10</v>
       </c>
       <c r="B149" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D149">
         <v>27</v>
@@ -3084,10 +3105,10 @@
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D150">
         <v>21</v>
@@ -3101,10 +3122,10 @@
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D151">
         <v>37</v>
@@ -3118,10 +3139,10 @@
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C152" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D152">
         <v>41</v>
@@ -3135,10 +3156,10 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" t="s">
         <v>25</v>
-      </c>
-      <c r="C153" t="s">
-        <v>27</v>
       </c>
       <c r="D153">
         <v>35</v>
@@ -3152,10 +3173,10 @@
         <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D154">
         <v>29</v>
@@ -3169,10 +3190,10 @@
         <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D155">
         <v>27</v>
@@ -3186,10 +3207,10 @@
         <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C156" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D156">
         <v>34</v>
@@ -3203,10 +3224,10 @@
         <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C157" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D157">
         <v>34</v>
@@ -3220,10 +3241,10 @@
         <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C158" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D158">
         <v>33</v>
@@ -3237,10 +3258,10 @@
         <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D159">
         <v>36</v>
@@ -3254,10 +3275,10 @@
         <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C160" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D160">
         <v>17</v>
@@ -3271,10 +3292,10 @@
         <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D161">
         <v>17</v>
@@ -3288,10 +3309,10 @@
         <v>11</v>
       </c>
       <c r="B162" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D162">
         <v>17</v>
@@ -3305,10 +3326,10 @@
         <v>11</v>
       </c>
       <c r="B163" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C163" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D163">
         <v>24</v>
@@ -3322,10 +3343,10 @@
         <v>12</v>
       </c>
       <c r="B164" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C164" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D164">
         <v>20</v>
@@ -3339,10 +3360,10 @@
         <v>12</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D165">
         <v>19</v>
@@ -3356,10 +3377,10 @@
         <v>12</v>
       </c>
       <c r="B166" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C166" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D166">
         <v>34</v>
@@ -3373,10 +3394,10 @@
         <v>12</v>
       </c>
       <c r="B167" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D167">
         <v>19</v>
@@ -3390,10 +3411,10 @@
         <v>12</v>
       </c>
       <c r="B168" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D168">
         <v>16</v>
@@ -3407,10 +3428,10 @@
         <v>12</v>
       </c>
       <c r="B169" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C169" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D169">
         <v>20</v>
@@ -3424,10 +3445,10 @@
         <v>12</v>
       </c>
       <c r="B170" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D170">
         <v>17</v>
@@ -3441,10 +3462,10 @@
         <v>12</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D171">
         <v>41</v>
@@ -3458,10 +3479,10 @@
         <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C172" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D172">
         <v>35</v>
@@ -3475,10 +3496,10 @@
         <v>12</v>
       </c>
       <c r="B173" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C173" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D173">
         <v>34</v>
@@ -3492,10 +3513,10 @@
         <v>12</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D174">
         <v>42</v>
@@ -3509,10 +3530,10 @@
         <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C175" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D175">
         <v>13</v>
@@ -3526,10 +3547,10 @@
         <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D176">
         <v>37</v>
@@ -3543,10 +3564,10 @@
         <v>12</v>
       </c>
       <c r="B177" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C177" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D177">
         <v>45</v>
@@ -3560,10 +3581,10 @@
         <v>13</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D178">
         <v>24</v>
@@ -3577,10 +3598,10 @@
         <v>13</v>
       </c>
       <c r="B179" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C179" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D179">
         <v>26</v>
@@ -3594,10 +3615,10 @@
         <v>13</v>
       </c>
       <c r="B180" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C180" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D180">
         <v>26</v>
@@ -3611,10 +3632,10 @@
         <v>13</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C181" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D181">
         <v>31</v>
@@ -3628,10 +3649,10 @@
         <v>13</v>
       </c>
       <c r="B182" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" t="s">
         <v>12</v>
-      </c>
-      <c r="C182" t="s">
-        <v>14</v>
       </c>
       <c r="D182">
         <v>29</v>
@@ -3645,10 +3666,10 @@
         <v>13</v>
       </c>
       <c r="B183" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C183" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D183">
         <v>28</v>
@@ -3662,10 +3683,10 @@
         <v>13</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D184">
         <v>31</v>
@@ -3679,10 +3700,10 @@
         <v>13</v>
       </c>
       <c r="B185" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C185" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D185">
         <v>20</v>
@@ -3696,10 +3717,10 @@
         <v>13</v>
       </c>
       <c r="B186" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C186" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D186">
         <v>37</v>
@@ -3713,10 +3734,10 @@
         <v>13</v>
       </c>
       <c r="B187" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C187" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D187">
         <v>22</v>
@@ -3730,10 +3751,10 @@
         <v>13</v>
       </c>
       <c r="B188" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D188">
         <v>20</v>
@@ -3747,10 +3768,10 @@
         <v>13</v>
       </c>
       <c r="B189" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C189" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D189">
         <v>34</v>
@@ -3764,10 +3785,10 @@
         <v>13</v>
       </c>
       <c r="B190" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C190" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D190">
         <v>40</v>
@@ -3781,10 +3802,10 @@
         <v>13</v>
       </c>
       <c r="B191" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C191" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D191">
         <v>23</v>
@@ -3798,10 +3819,10 @@
         <v>13</v>
       </c>
       <c r="B192" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C192" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D192">
         <v>28</v>
@@ -3815,10 +3836,10 @@
         <v>13</v>
       </c>
       <c r="B193" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D193">
         <v>37</v>
@@ -3832,10 +3853,10 @@
         <v>14</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D194">
         <v>31</v>
@@ -3849,10 +3870,10 @@
         <v>14</v>
       </c>
       <c r="B195" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C195" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D195">
         <v>24</v>
@@ -3866,10 +3887,10 @@
         <v>14</v>
       </c>
       <c r="B196" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C196" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D196">
         <v>48</v>
@@ -3883,10 +3904,10 @@
         <v>14</v>
       </c>
       <c r="B197" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C197" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D197">
         <v>38</v>
@@ -3900,10 +3921,10 @@
         <v>14</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C198" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D198">
         <v>20</v>
@@ -3917,10 +3938,10 @@
         <v>14</v>
       </c>
       <c r="B199" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D199">
         <v>40</v>
@@ -3934,10 +3955,10 @@
         <v>14</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D200">
         <v>20</v>
@@ -3951,10 +3972,10 @@
         <v>14</v>
       </c>
       <c r="B201" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C201" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D201">
         <v>38</v>
@@ -3968,10 +3989,10 @@
         <v>14</v>
       </c>
       <c r="B202" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C202" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D202">
         <v>22</v>
@@ -3985,10 +4006,10 @@
         <v>14</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D203">
         <v>27</v>
@@ -4002,10 +4023,10 @@
         <v>14</v>
       </c>
       <c r="B204" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C204" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D204">
         <v>45</v>
@@ -4019,10 +4040,10 @@
         <v>14</v>
       </c>
       <c r="B205" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C205" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D205">
         <v>23</v>
@@ -4036,10 +4057,10 @@
         <v>14</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D206">
         <v>42</v>
@@ -4053,10 +4074,10 @@
         <v>14</v>
       </c>
       <c r="B207" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C207" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D207">
         <v>23</v>
@@ -4070,10 +4091,10 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C208" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D208">
         <v>28</v>
@@ -4087,10 +4108,10 @@
         <v>14</v>
       </c>
       <c r="B209" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D209">
         <v>23</v>
@@ -4104,10 +4125,10 @@
         <v>15</v>
       </c>
       <c r="B210" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C210" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D210">
         <v>42</v>
@@ -4121,10 +4142,10 @@
         <v>15</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C211" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D211">
         <v>21</v>
@@ -4138,10 +4159,10 @@
         <v>15</v>
       </c>
       <c r="B212" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C212" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D212">
         <v>36</v>
@@ -4155,10 +4176,10 @@
         <v>15</v>
       </c>
       <c r="B213" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C213" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D213">
         <v>34</v>
@@ -4172,10 +4193,10 @@
         <v>15</v>
       </c>
       <c r="B214" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C214" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D214">
         <v>30</v>
@@ -4189,10 +4210,10 @@
         <v>15</v>
       </c>
       <c r="B215" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C215" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D215">
         <v>23</v>
@@ -4206,10 +4227,10 @@
         <v>15</v>
       </c>
       <c r="B216" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D216">
         <v>37</v>
@@ -4223,10 +4244,10 @@
         <v>15</v>
       </c>
       <c r="B217" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C217" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D217">
         <v>24</v>
@@ -4240,10 +4261,10 @@
         <v>15</v>
       </c>
       <c r="B218" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C218" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D218">
         <v>38</v>
@@ -4257,10 +4278,10 @@
         <v>15</v>
       </c>
       <c r="B219" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D219">
         <v>38</v>
@@ -4274,10 +4295,10 @@
         <v>15</v>
       </c>
       <c r="B220" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D220">
         <v>39</v>
@@ -4291,10 +4312,10 @@
         <v>15</v>
       </c>
       <c r="B221" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C221" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D221">
         <v>20</v>
@@ -4308,10 +4329,10 @@
         <v>15</v>
       </c>
       <c r="B222" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C222" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D222">
         <v>44</v>
@@ -4325,10 +4346,10 @@
         <v>15</v>
       </c>
       <c r="B223" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D223">
         <v>29</v>
@@ -4342,10 +4363,10 @@
         <v>15</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C224" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D224">
         <v>17</v>
@@ -4359,10 +4380,10 @@
         <v>15</v>
       </c>
       <c r="B225" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C225" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D225">
         <v>34</v>
@@ -4376,10 +4397,10 @@
         <v>16</v>
       </c>
       <c r="B226" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C226" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D226">
         <v>23</v>
@@ -4393,10 +4414,10 @@
         <v>16</v>
       </c>
       <c r="B227" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C227" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D227">
         <v>24</v>
@@ -4410,10 +4431,10 @@
         <v>16</v>
       </c>
       <c r="B228" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C228" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D228">
         <v>34</v>
@@ -4427,10 +4448,10 @@
         <v>16</v>
       </c>
       <c r="B229" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D229">
         <v>24</v>
@@ -4444,10 +4465,10 @@
         <v>16</v>
       </c>
       <c r="B230" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C230" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D230">
         <v>41</v>
@@ -4461,10 +4482,10 @@
         <v>16</v>
       </c>
       <c r="B231" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D231">
         <v>31</v>
@@ -4478,10 +4499,10 @@
         <v>16</v>
       </c>
       <c r="B232" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C232" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D232">
         <v>38</v>
@@ -4495,10 +4516,10 @@
         <v>16</v>
       </c>
       <c r="B233" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C233" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D233">
         <v>38</v>
@@ -4512,10 +4533,10 @@
         <v>16</v>
       </c>
       <c r="B234" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C234" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D234">
         <v>16</v>
@@ -4529,10 +4550,10 @@
         <v>16</v>
       </c>
       <c r="B235" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C235" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D235">
         <v>38</v>
@@ -4546,10 +4567,10 @@
         <v>16</v>
       </c>
       <c r="B236" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C236" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D236">
         <v>24</v>
@@ -4563,10 +4584,10 @@
         <v>16</v>
       </c>
       <c r="B237" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C237" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D237">
         <v>27</v>
@@ -4580,10 +4601,10 @@
         <v>16</v>
       </c>
       <c r="B238" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C238" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D238">
         <v>17</v>
@@ -4597,10 +4618,10 @@
         <v>16</v>
       </c>
       <c r="B239" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C239" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D239">
         <v>27</v>
@@ -4614,10 +4635,10 @@
         <v>16</v>
       </c>
       <c r="B240" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C240" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D240">
         <v>26</v>
@@ -4631,10 +4652,10 @@
         <v>16</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C241" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D241">
         <v>23</v>
@@ -4648,10 +4669,10 @@
         <v>17</v>
       </c>
       <c r="B242" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C242" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D242">
         <v>42</v>
@@ -4665,10 +4686,10 @@
         <v>17</v>
       </c>
       <c r="B243" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C243" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D243">
         <v>31</v>
@@ -4682,10 +4703,10 @@
         <v>17</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C244" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D244">
         <v>23</v>
@@ -4699,10 +4720,10 @@
         <v>17</v>
       </c>
       <c r="B245" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D245">
         <v>28</v>
@@ -4716,10 +4737,10 @@
         <v>17</v>
       </c>
       <c r="B246" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C246" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D246">
         <v>27</v>
@@ -4733,10 +4754,10 @@
         <v>17</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C247" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D247">
         <v>21</v>
@@ -4750,10 +4771,10 @@
         <v>17</v>
       </c>
       <c r="B248" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C248" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D248">
         <v>33</v>
@@ -4767,10 +4788,10 @@
         <v>17</v>
       </c>
       <c r="B249" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C249" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D249">
         <v>13</v>
@@ -4784,10 +4805,10 @@
         <v>17</v>
       </c>
       <c r="B250" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C250" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D250">
         <v>16</v>
@@ -4801,10 +4822,10 @@
         <v>17</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D251">
         <v>35</v>
@@ -4818,10 +4839,10 @@
         <v>17</v>
       </c>
       <c r="B252" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C252" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D252">
         <v>38</v>
@@ -4835,10 +4856,10 @@
         <v>17</v>
       </c>
       <c r="B253" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C253" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D253">
         <v>34</v>
@@ -4852,10 +4873,10 @@
         <v>17</v>
       </c>
       <c r="B254" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C254" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D254">
         <v>47</v>
@@ -4869,10 +4890,10 @@
         <v>17</v>
       </c>
       <c r="B255" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C255" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D255">
         <v>28</v>
@@ -4886,10 +4907,10 @@
         <v>17</v>
       </c>
       <c r="B256" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C256" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D256">
         <v>31</v>
@@ -4903,203 +4924,16 @@
         <v>17</v>
       </c>
       <c r="B257" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C257" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D257">
         <v>26</v>
       </c>
       <c r="E257">
         <v>21</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259" t="s">
-        <v>37</v>
-      </c>
-      <c r="B259" t="s">
-        <v>34</v>
-      </c>
-      <c r="C259" t="s">
-        <v>15</v>
-      </c>
-      <c r="D259">
-        <v>22</v>
-      </c>
-      <c r="E259">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" t="s">
-        <v>37</v>
-      </c>
-      <c r="B260" t="s">
-        <v>7</v>
-      </c>
-      <c r="C260" t="s">
-        <v>31</v>
-      </c>
-      <c r="D260">
-        <v>20</v>
-      </c>
-      <c r="E260">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261" t="s">
-        <v>37</v>
-      </c>
-      <c r="B261" t="s">
-        <v>9</v>
-      </c>
-      <c r="C261" t="s">
-        <v>33</v>
-      </c>
-      <c r="D261">
-        <v>26</v>
-      </c>
-      <c r="E261">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="A262" t="s">
-        <v>37</v>
-      </c>
-      <c r="B262" t="s">
-        <v>23</v>
-      </c>
-      <c r="C262" t="s">
-        <v>11</v>
-      </c>
-      <c r="D262">
-        <v>17</v>
-      </c>
-      <c r="E262">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263" t="s">
-        <v>38</v>
-      </c>
-      <c r="B263" t="s">
-        <v>29</v>
-      </c>
-      <c r="C263" t="s">
-        <v>9</v>
-      </c>
-      <c r="D263">
-        <v>27</v>
-      </c>
-      <c r="E263">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264" t="s">
-        <v>38</v>
-      </c>
-      <c r="B264" t="s">
-        <v>7</v>
-      </c>
-      <c r="C264" t="s">
-        <v>19</v>
-      </c>
-      <c r="D264">
-        <v>28</v>
-      </c>
-      <c r="E264">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265" t="s">
-        <v>38</v>
-      </c>
-      <c r="B265" t="s">
-        <v>17</v>
-      </c>
-      <c r="C265" t="s">
-        <v>34</v>
-      </c>
-      <c r="D265">
-        <v>51</v>
-      </c>
-      <c r="E265">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266" t="s">
-        <v>38</v>
-      </c>
-      <c r="B266" t="s">
-        <v>5</v>
-      </c>
-      <c r="C266" t="s">
-        <v>23</v>
-      </c>
-      <c r="D266">
-        <v>28</v>
-      </c>
-      <c r="E266">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
-      <c r="A267" t="s">
-        <v>39</v>
-      </c>
-      <c r="B267" t="s">
-        <v>17</v>
-      </c>
-      <c r="C267" t="s">
-        <v>7</v>
-      </c>
-      <c r="D267">
-        <v>35</v>
-      </c>
-      <c r="E267">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="A268" t="s">
-        <v>39</v>
-      </c>
-      <c r="B268" t="s">
-        <v>29</v>
-      </c>
-      <c r="C268" t="s">
-        <v>5</v>
-      </c>
-      <c r="D268">
-        <v>37</v>
-      </c>
-      <c r="E268">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="A269" t="s">
-        <v>40</v>
-      </c>
-      <c r="B269" t="s">
-        <v>17</v>
-      </c>
-      <c r="C269" t="s">
-        <v>29</v>
-      </c>
-      <c r="D269">
-        <v>31</v>
-      </c>
-      <c r="E269">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5108,11 +4942,394 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC75579-6E33-AF43-9B16-93D21EC28854}">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4">
+        <v>30000</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3000</v>
+      </c>
+      <c r="C3" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4000</v>
+      </c>
+      <c r="C4" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C7" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4">
+        <v>20000</v>
+      </c>
+      <c r="C8" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C10" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4">
+        <v>8000</v>
+      </c>
+      <c r="C11" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8000</v>
+      </c>
+      <c r="C12" s="6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C13" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C14" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4">
+        <v>8000</v>
+      </c>
+      <c r="C15" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2500</v>
+      </c>
+      <c r="C16" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>600</v>
+      </c>
+      <c r="C17" s="6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C18" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1400</v>
+      </c>
+      <c r="C19" s="6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C20" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C21" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4">
+        <v>400</v>
+      </c>
+      <c r="C22" s="6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C23" s="6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4">
+        <v>20000</v>
+      </c>
+      <c r="C24" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4">
+        <v>6000</v>
+      </c>
+      <c r="C25" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="4">
+        <v>20000</v>
+      </c>
+      <c r="C26" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C27" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1800</v>
+      </c>
+      <c r="C28" s="6">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4">
+        <v>4000</v>
+      </c>
+      <c r="C29" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C30" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C31" s="6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="4">
+        <v>8000</v>
+      </c>
+      <c r="C32" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="4">
+        <v>30000</v>
+      </c>
+      <c r="C33" s="6">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66FD15B-10ED-9644-AB77-986D09349934}">
   <dimension ref="A1:E269"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1048576"/>
+    <sheetView topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="D262" sqref="D262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5122,16 +5339,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -5139,10 +5356,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>18</v>
@@ -5156,10 +5373,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>48</v>
@@ -5173,10 +5390,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>24</v>
@@ -5190,10 +5407,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2">
         <v>27</v>
@@ -5207,10 +5424,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
         <v>20</v>
@@ -5224,10 +5441,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
         <v>21</v>
@@ -5241,10 +5458,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>27</v>
@@ -5258,10 +5475,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
         <v>34</v>
@@ -5275,10 +5492,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2">
         <v>47</v>
@@ -5292,10 +5509,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
         <v>38</v>
@@ -5309,10 +5526,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2">
         <v>16</v>
@@ -5326,10 +5543,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2">
         <v>24</v>
@@ -5343,10 +5560,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2">
         <v>27</v>
@@ -5360,10 +5577,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15" s="2">
         <v>24</v>
@@ -5377,10 +5594,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2">
         <v>48</v>
@@ -5394,10 +5611,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
         <v>33</v>
@@ -5411,10 +5628,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2">
         <v>34</v>
@@ -5428,10 +5645,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2">
         <v>29</v>
@@ -5445,10 +5662,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2">
         <v>27</v>
@@ -5462,10 +5679,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2">
         <v>31</v>
@@ -5479,10 +5696,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2">
         <v>42</v>
@@ -5496,10 +5713,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2">
         <v>20</v>
@@ -5513,10 +5730,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24" s="2">
         <v>21</v>
@@ -5530,10 +5747,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
         <v>20</v>
@@ -5547,10 +5764,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2">
         <v>21</v>
@@ -5564,10 +5781,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2">
         <v>31</v>
@@ -5581,10 +5798,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2">
         <v>30</v>
@@ -5598,10 +5815,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" s="2">
         <v>34</v>
@@ -5615,10 +5832,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>31</v>
@@ -5632,10 +5849,10 @@
         <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2">
         <v>20</v>
@@ -5649,10 +5866,10 @@
         <v>2</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D32" s="2">
         <v>20</v>
@@ -5666,10 +5883,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D33" s="2">
         <v>24</v>
@@ -5683,10 +5900,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D34" s="2">
         <v>21</v>
@@ -5700,10 +5917,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2">
         <v>27</v>
@@ -5717,10 +5934,10 @@
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2">
         <v>27</v>
@@ -5734,10 +5951,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D37" s="2">
         <v>20</v>
@@ -5751,10 +5968,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D38" s="2">
         <v>27</v>
@@ -5768,10 +5985,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" s="2">
         <v>31</v>
@@ -5785,10 +6002,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D40" s="2">
         <v>31</v>
@@ -5802,10 +6019,10 @@
         <v>3</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2">
         <v>43</v>
@@ -5819,10 +6036,10 @@
         <v>3</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>38</v>
@@ -5836,10 +6053,10 @@
         <v>3</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2">
         <v>28</v>
@@ -5853,10 +6070,10 @@
         <v>3</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D44" s="2">
         <v>9</v>
@@ -5870,10 +6087,10 @@
         <v>3</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D45" s="2">
         <v>35</v>
@@ -5887,10 +6104,10 @@
         <v>3</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D46" s="2">
         <v>24</v>
@@ -5904,10 +6121,10 @@
         <v>3</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D47" s="2">
         <v>16</v>
@@ -5921,10 +6138,10 @@
         <v>3</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>26</v>
@@ -5938,10 +6155,10 @@
         <v>3</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>30</v>
@@ -5955,10 +6172,10 @@
         <v>4</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D50" s="2">
         <v>38</v>
@@ -5972,10 +6189,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D51" s="2">
         <v>38</v>
@@ -5989,10 +6206,10 @@
         <v>4</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D52" s="2">
         <v>31</v>
@@ -6006,10 +6223,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D53" s="2">
         <v>37</v>
@@ -6023,10 +6240,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2">
         <v>22</v>
@@ -6040,10 +6257,10 @@
         <v>4</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>26</v>
@@ -6057,10 +6274,10 @@
         <v>4</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>48</v>
@@ -6074,10 +6291,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2">
         <v>26</v>
@@ -6091,10 +6308,10 @@
         <v>4</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2">
         <v>37</v>
@@ -6108,10 +6325,10 @@
         <v>4</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D59" s="2">
         <v>45</v>
@@ -6125,10 +6342,10 @@
         <v>4</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D60" s="2">
         <v>20</v>
@@ -6142,10 +6359,10 @@
         <v>4</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D61" s="2">
         <v>33</v>
@@ -6159,10 +6376,10 @@
         <v>4</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>29</v>
@@ -6176,10 +6393,10 @@
         <v>4</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D63" s="2">
         <v>26</v>
@@ -6193,10 +6410,10 @@
         <v>4</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D64" s="2">
         <v>27</v>
@@ -6210,10 +6427,10 @@
         <v>5</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D65" s="2">
         <v>38</v>
@@ -6227,10 +6444,10 @@
         <v>5</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D66" s="2">
         <v>33</v>
@@ -6244,10 +6461,10 @@
         <v>5</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" s="2">
         <v>31</v>
@@ -6261,10 +6478,10 @@
         <v>5</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D68" s="2">
         <v>27</v>
@@ -6278,10 +6495,10 @@
         <v>5</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D69" s="2">
         <v>41</v>
@@ -6295,10 +6512,10 @@
         <v>5</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D70" s="2">
         <v>30</v>
@@ -6312,10 +6529,10 @@
         <v>5</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2">
         <v>12</v>
@@ -6329,10 +6546,10 @@
         <v>5</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D72" s="2">
         <v>34</v>
@@ -6346,10 +6563,10 @@
         <v>5</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D73" s="2">
         <v>13</v>
@@ -6363,10 +6580,10 @@
         <v>5</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2">
         <v>26</v>
@@ -6380,10 +6597,10 @@
         <v>5</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>28</v>
@@ -6397,10 +6614,10 @@
         <v>5</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D76" s="2">
         <v>33</v>
@@ -6414,10 +6631,10 @@
         <v>5</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D77" s="2">
         <v>23</v>
@@ -6431,10 +6648,10 @@
         <v>5</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D78" s="2">
         <v>19</v>
@@ -6448,10 +6665,10 @@
         <v>5</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D79" s="2">
         <v>43</v>
@@ -6465,10 +6682,10 @@
         <v>6</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D80" s="2">
         <v>34</v>
@@ -6482,10 +6699,10 @@
         <v>6</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D81" s="2">
         <v>31</v>
@@ -6499,10 +6716,10 @@
         <v>6</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D82" s="2">
         <v>23</v>
@@ -6516,10 +6733,10 @@
         <v>6</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D83" s="2">
         <v>42</v>
@@ -6533,10 +6750,10 @@
         <v>6</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2">
         <v>20</v>
@@ -6550,10 +6767,10 @@
         <v>6</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2">
         <v>27</v>
@@ -6567,10 +6784,10 @@
         <v>6</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D86" s="2">
         <v>28</v>
@@ -6584,10 +6801,10 @@
         <v>6</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D87" s="2">
         <v>27</v>
@@ -6601,10 +6818,10 @@
         <v>6</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>34</v>
@@ -6618,10 +6835,10 @@
         <v>6</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D89" s="2">
         <v>38</v>
@@ -6635,10 +6852,10 @@
         <v>6</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D90" s="2">
         <v>23</v>
@@ -6652,10 +6869,10 @@
         <v>6</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D91" s="2">
         <v>21</v>
@@ -6669,10 +6886,10 @@
         <v>6</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D92" s="2">
         <v>40</v>
@@ -6686,10 +6903,10 @@
         <v>6</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D93" s="2">
         <v>43</v>
@@ -6703,10 +6920,10 @@
         <v>6</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>33</v>
@@ -6720,10 +6937,10 @@
         <v>7</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D95" s="2">
         <v>45</v>
@@ -6737,10 +6954,10 @@
         <v>7</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D96" s="2">
         <v>20</v>
@@ -6754,10 +6971,10 @@
         <v>7</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2">
         <v>21</v>
@@ -6771,10 +6988,10 @@
         <v>7</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D98" s="2">
         <v>32</v>
@@ -6788,10 +7005,10 @@
         <v>7</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D99" s="2">
         <v>38</v>
@@ -6805,10 +7022,10 @@
         <v>7</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D100" s="2">
         <v>37</v>
@@ -6822,10 +7039,10 @@
         <v>7</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D101" s="2">
         <v>26</v>
@@ -6839,10 +7056,10 @@
         <v>7</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2">
         <v>37</v>
@@ -6856,10 +7073,10 @@
         <v>7</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D103" s="2">
         <v>20</v>
@@ -6873,10 +7090,10 @@
         <v>7</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2">
         <v>24</v>
@@ -6890,10 +7107,10 @@
         <v>7</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D105" s="2">
         <v>20</v>
@@ -6907,10 +7124,10 @@
         <v>7</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>39</v>
@@ -6924,10 +7141,10 @@
         <v>7</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D107" s="2">
         <v>45</v>
@@ -6941,10 +7158,10 @@
         <v>7</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D108" s="2">
         <v>23</v>
@@ -6958,10 +7175,10 @@
         <v>8</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D109" s="2">
         <v>42</v>
@@ -6975,10 +7192,10 @@
         <v>8</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D110" s="2">
         <v>24</v>
@@ -6992,10 +7209,10 @@
         <v>8</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2">
         <v>36</v>
@@ -7009,10 +7226,10 @@
         <v>8</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D112" s="2">
         <v>28</v>
@@ -7026,10 +7243,10 @@
         <v>8</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D113" s="2">
         <v>24</v>
@@ -7043,10 +7260,10 @@
         <v>8</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D114" s="2">
         <v>30</v>
@@ -7060,10 +7277,10 @@
         <v>8</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D115" s="2">
         <v>33</v>
@@ -7077,10 +7294,10 @@
         <v>8</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>37</v>
@@ -7094,10 +7311,10 @@
         <v>8</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D117" s="2">
         <v>20</v>
@@ -7111,10 +7328,10 @@
         <v>8</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D118" s="2">
         <v>42</v>
@@ -7128,10 +7345,10 @@
         <v>8</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D119" s="2">
         <v>29</v>
@@ -7145,10 +7362,10 @@
         <v>8</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>18</v>
@@ -7162,10 +7379,10 @@
         <v>8</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D121" s="2">
         <v>30</v>
@@ -7179,10 +7396,10 @@
         <v>8</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D122" s="2">
         <v>25</v>
@@ -7196,10 +7413,10 @@
         <v>9</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D123" s="2">
         <v>34</v>
@@ -7213,10 +7430,10 @@
         <v>9</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D124" s="2">
         <v>38</v>
@@ -7230,10 +7447,10 @@
         <v>9</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2">
         <v>23</v>
@@ -7247,10 +7464,10 @@
         <v>9</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>42</v>
@@ -7264,10 +7481,10 @@
         <v>9</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D127" s="2">
         <v>24</v>
@@ -7281,10 +7498,10 @@
         <v>9</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D128" s="2">
         <v>13</v>
@@ -7298,10 +7515,10 @@
         <v>9</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D129" s="2">
         <v>37</v>
@@ -7315,10 +7532,10 @@
         <v>9</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D130" s="2">
         <v>41</v>
@@ -7332,10 +7549,10 @@
         <v>9</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D131" s="2">
         <v>25</v>
@@ -7349,10 +7566,10 @@
         <v>9</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D132" s="2">
         <v>19</v>
@@ -7366,10 +7583,10 @@
         <v>9</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D133" s="2">
         <v>45</v>
@@ -7383,10 +7600,10 @@
         <v>9</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D134" s="2">
         <v>31</v>
@@ -7400,10 +7617,10 @@
         <v>9</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D135" s="2">
         <v>28</v>
@@ -7417,10 +7634,10 @@
         <v>10</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2">
         <v>52</v>
@@ -7434,10 +7651,10 @@
         <v>10</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D137" s="2">
         <v>34</v>
@@ -7451,10 +7668,10 @@
         <v>10</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D138" s="2">
         <v>51</v>
@@ -7468,10 +7685,10 @@
         <v>10</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D139" s="2">
         <v>26</v>
@@ -7485,10 +7702,10 @@
         <v>10</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="D140" s="2">
         <v>28</v>
@@ -7502,10 +7719,10 @@
         <v>10</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D141" s="2">
         <v>29</v>
@@ -7519,10 +7736,10 @@
         <v>10</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>16</v>
@@ -7536,10 +7753,10 @@
         <v>10</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D143" s="2">
         <v>34</v>
@@ -7553,10 +7770,10 @@
         <v>10</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D144" s="2">
         <v>41</v>
@@ -7570,10 +7787,10 @@
         <v>10</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D145" s="2">
         <v>20</v>
@@ -7587,10 +7804,10 @@
         <v>10</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D146" s="2">
         <v>31</v>
@@ -7604,10 +7821,10 @@
         <v>10</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D147" s="2">
         <v>36</v>
@@ -7621,10 +7838,10 @@
         <v>10</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2">
         <v>27</v>
@@ -7638,10 +7855,10 @@
         <v>10</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>27</v>
@@ -7655,10 +7872,10 @@
         <v>11</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D150" s="2">
         <v>27</v>
@@ -7672,10 +7889,10 @@
         <v>11</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D151" s="2">
         <v>20</v>
@@ -7689,10 +7906,10 @@
         <v>11</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2">
         <v>20</v>
@@ -7706,10 +7923,10 @@
         <v>11</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D153" s="2">
         <v>24</v>
@@ -7723,10 +7940,10 @@
         <v>11</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2">
         <v>38</v>
@@ -7740,10 +7957,10 @@
         <v>11</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D155" s="2">
         <v>22</v>
@@ -7757,10 +7974,10 @@
         <v>11</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D156" s="2">
         <v>38</v>
@@ -7774,10 +7991,10 @@
         <v>11</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D157" s="2">
         <v>23</v>
@@ -7791,10 +8008,10 @@
         <v>11</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D158" s="2">
         <v>23</v>
@@ -7808,10 +8025,10 @@
         <v>11</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D159" s="2">
         <v>23</v>
@@ -7825,10 +8042,10 @@
         <v>11</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2">
         <v>48</v>
@@ -7842,10 +8059,10 @@
         <v>11</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D161" s="2">
         <v>25</v>
@@ -7859,10 +8076,10 @@
         <v>11</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D162" s="2">
         <v>54</v>
@@ -7876,10 +8093,10 @@
         <v>12</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D163" s="2">
         <v>23</v>
@@ -7893,10 +8110,10 @@
         <v>12</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D164" s="2">
         <v>31</v>
@@ -7910,10 +8127,10 @@
         <v>12</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D165" s="2">
         <v>31</v>
@@ -7927,10 +8144,10 @@
         <v>12</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D166" s="2">
         <v>34</v>
@@ -7944,10 +8161,10 @@
         <v>12</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D167" s="2">
         <v>27</v>
@@ -7961,10 +8178,10 @@
         <v>12</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D168" s="2">
         <v>24</v>
@@ -7978,10 +8195,10 @@
         <v>12</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
         <v>27</v>
@@ -7995,10 +8212,10 @@
         <v>12</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2">
         <v>30</v>
@@ -8012,10 +8229,10 @@
         <v>12</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D171" s="2">
         <v>35</v>
@@ -8029,10 +8246,10 @@
         <v>12</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D172" s="2">
         <v>25</v>
@@ -8046,10 +8263,10 @@
         <v>12</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D173" s="2">
         <v>45</v>
@@ -8063,10 +8280,10 @@
         <v>12</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D174" s="2">
         <v>24</v>
@@ -8080,10 +8297,10 @@
         <v>12</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D175" s="2">
         <v>27</v>
@@ -8097,10 +8314,10 @@
         <v>12</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D176" s="2">
         <v>24</v>
@@ -8114,10 +8331,10 @@
         <v>12</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D177" s="2">
         <v>34</v>
@@ -8131,10 +8348,10 @@
         <v>13</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D178" s="2">
         <v>13</v>
@@ -8148,10 +8365,10 @@
         <v>13</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D179" s="2">
         <v>29</v>
@@ -8165,10 +8382,10 @@
         <v>13</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D180" s="2">
         <v>24</v>
@@ -8182,10 +8399,10 @@
         <v>13</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D181" s="2">
         <v>30</v>
@@ -8199,10 +8416,10 @@
         <v>13</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D182" s="2">
         <v>20</v>
@@ -8216,10 +8433,10 @@
         <v>13</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D183" s="2">
         <v>26</v>
@@ -8233,10 +8450,10 @@
         <v>13</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D184" s="2">
         <v>6</v>
@@ -8250,10 +8467,10 @@
         <v>13</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D185" s="2">
         <v>21</v>
@@ -8267,10 +8484,10 @@
         <v>13</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D186" s="2">
         <v>30</v>
@@ -8284,10 +8501,10 @@
         <v>13</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D187" s="2">
         <v>24</v>
@@ -8301,10 +8518,10 @@
         <v>13</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D188" s="2">
         <v>40</v>
@@ -8318,10 +8535,10 @@
         <v>13</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D189" s="2">
         <v>26</v>
@@ -8335,10 +8552,10 @@
         <v>13</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D190" s="2">
         <v>43</v>
@@ -8352,10 +8569,10 @@
         <v>13</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D191" s="2">
         <v>24</v>
@@ -8369,10 +8586,10 @@
         <v>13</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D192" s="2">
         <v>33</v>
@@ -8386,10 +8603,10 @@
         <v>13</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D193" s="2">
         <v>28</v>
@@ -8403,10 +8620,10 @@
         <v>14</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D194" s="2">
         <v>30</v>
@@ -8420,10 +8637,10 @@
         <v>14</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D195" s="2">
         <v>27</v>
@@ -8437,10 +8654,10 @@
         <v>14</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D196" s="2">
         <v>40</v>
@@ -8454,10 +8671,10 @@
         <v>14</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D197" s="2">
         <v>26</v>
@@ -8471,10 +8688,10 @@
         <v>14</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D198" s="2">
         <v>34</v>
@@ -8488,10 +8705,10 @@
         <v>14</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D199" s="2">
         <v>34</v>
@@ -8505,10 +8722,10 @@
         <v>14</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D200" s="2">
         <v>24</v>
@@ -8522,10 +8739,10 @@
         <v>14</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D201" s="2">
         <v>27</v>
@@ -8539,10 +8756,10 @@
         <v>14</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D202" s="2">
         <v>28</v>
@@ -8556,10 +8773,10 @@
         <v>14</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D203" s="2">
         <v>20</v>
@@ -8573,10 +8790,10 @@
         <v>14</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D204" s="2">
         <v>26</v>
@@ -8590,10 +8807,10 @@
         <v>14</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2">
         <v>29</v>
@@ -8607,10 +8824,10 @@
         <v>14</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D206" s="2">
         <v>24</v>
@@ -8624,10 +8841,10 @@
         <v>14</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D207" s="2">
         <v>17</v>
@@ -8641,10 +8858,10 @@
         <v>14</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D208" s="2">
         <v>15</v>
@@ -8658,10 +8875,10 @@
         <v>14</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D209" s="2">
         <v>21</v>
@@ -8675,10 +8892,10 @@
         <v>15</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D210" s="2">
         <v>29</v>
@@ -8692,10 +8909,10 @@
         <v>15</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D211" s="2">
         <v>29</v>
@@ -8709,10 +8926,10 @@
         <v>15</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D212" s="2">
         <v>17</v>
@@ -8726,10 +8943,10 @@
         <v>15</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D213" s="2">
         <v>14</v>
@@ -8743,10 +8960,10 @@
         <v>15</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D214" s="2">
         <v>17</v>
@@ -8760,10 +8977,10 @@
         <v>15</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D215" s="2">
         <v>24</v>
@@ -8777,10 +8994,10 @@
         <v>15</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D216" s="2">
         <v>16</v>
@@ -8794,10 +9011,10 @@
         <v>15</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D217" s="2">
         <v>30</v>
@@ -8811,10 +9028,10 @@
         <v>15</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D218" s="2">
         <v>20</v>
@@ -8828,10 +9045,10 @@
         <v>15</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D219" s="2">
         <v>40</v>
@@ -8845,10 +9062,10 @@
         <v>15</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D220" s="2">
         <v>41</v>
@@ -8862,10 +9079,10 @@
         <v>15</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D221" s="2">
         <v>23</v>
@@ -8879,10 +9096,10 @@
         <v>15</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D222" s="2">
         <v>26</v>
@@ -8896,10 +9113,10 @@
         <v>15</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D223" s="2">
         <v>17</v>
@@ -8913,10 +9130,10 @@
         <v>15</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D224" s="2">
         <v>30</v>
@@ -8930,10 +9147,10 @@
         <v>15</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D225" s="2">
         <v>12</v>
@@ -8947,10 +9164,10 @@
         <v>16</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D226" s="2">
         <v>25</v>
@@ -8964,10 +9181,10 @@
         <v>16</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D227" s="2">
         <v>22</v>
@@ -8981,10 +9198,10 @@
         <v>16</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D228" s="2">
         <v>24</v>
@@ -8998,10 +9215,10 @@
         <v>16</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D229" s="2">
         <v>44</v>
@@ -9015,10 +9232,10 @@
         <v>16</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D230" s="2">
         <v>28</v>
@@ -9032,10 +9249,10 @@
         <v>16</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D231" s="2">
         <v>27</v>
@@ -9049,10 +9266,10 @@
         <v>16</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D232" s="2">
         <v>27</v>
@@ -9066,10 +9283,10 @@
         <v>16</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D233" s="2">
         <v>24</v>
@@ -9083,10 +9300,10 @@
         <v>16</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D234" s="2">
         <v>32</v>
@@ -9100,10 +9317,10 @@
         <v>16</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D235" s="2">
         <v>17</v>
@@ -9117,10 +9334,10 @@
         <v>16</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D236" s="2">
         <v>26</v>
@@ -9134,10 +9351,10 @@
         <v>16</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D237" s="2">
         <v>14</v>
@@ -9151,10 +9368,10 @@
         <v>16</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D238" s="2">
         <v>31</v>
@@ -9168,10 +9385,10 @@
         <v>16</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D239" s="2">
         <v>31</v>
@@ -9185,10 +9402,10 @@
         <v>16</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D240" s="2">
         <v>38</v>
@@ -9202,10 +9419,10 @@
         <v>16</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D241" s="2">
         <v>27</v>
@@ -9219,10 +9436,10 @@
         <v>17</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D242" s="2">
         <v>20</v>
@@ -9236,10 +9453,10 @@
         <v>17</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D243" s="2">
         <v>34</v>
@@ -9253,10 +9470,10 @@
         <v>17</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D244" s="2">
         <v>36</v>
@@ -9270,10 +9487,10 @@
         <v>17</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D245" s="2">
         <v>31</v>
@@ -9287,10 +9504,10 @@
         <v>17</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D246" s="2">
         <v>33</v>
@@ -9304,10 +9521,10 @@
         <v>17</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D247" s="2">
         <v>42</v>
@@ -9321,10 +9538,10 @@
         <v>17</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D248" s="2">
         <v>38</v>
@@ -9338,10 +9555,10 @@
         <v>17</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D249" s="2">
         <v>24</v>
@@ -9355,10 +9572,10 @@
         <v>17</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D250" s="2">
         <v>27</v>
@@ -9372,10 +9589,10 @@
         <v>17</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D251" s="2">
         <v>16</v>
@@ -9389,10 +9606,10 @@
         <v>17</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D252" s="2">
         <v>48</v>
@@ -9406,10 +9623,10 @@
         <v>17</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D253" s="2">
         <v>26</v>
@@ -9423,10 +9640,10 @@
         <v>17</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D254" s="2">
         <v>35</v>
@@ -9440,10 +9657,10 @@
         <v>17</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D255" s="2">
         <v>24</v>
@@ -9457,10 +9674,10 @@
         <v>17</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D256" s="2">
         <v>23</v>
@@ -9474,10 +9691,10 @@
         <v>17</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D257" s="2">
         <v>33</v>
@@ -9494,191 +9711,81 @@
       <c r="E258" s="2"/>
     </row>
     <row r="259" spans="1:5" ht="15" customHeight="1">
-      <c r="A259" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D259" s="2">
-        <v>21</v>
-      </c>
-      <c r="E259" s="2">
-        <v>7</v>
-      </c>
+      <c r="A259" s="1"/>
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
     </row>
     <row r="260" spans="1:5" ht="15" customHeight="1">
-      <c r="A260" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D260" s="2">
-        <v>24</v>
-      </c>
-      <c r="E260" s="2">
-        <v>22</v>
-      </c>
+      <c r="A260" s="1"/>
+      <c r="B260" s="2"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:5" ht="15" customHeight="1">
-      <c r="A261" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D261" s="2">
-        <v>23</v>
-      </c>
-      <c r="E261" s="2">
-        <v>17</v>
-      </c>
+      <c r="A261" s="1"/>
+      <c r="B261" s="2"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
+      <c r="E261" s="2"/>
     </row>
     <row r="262" spans="1:5" ht="15" customHeight="1">
-      <c r="A262" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D262" s="2">
-        <v>16</v>
-      </c>
-      <c r="E262" s="2">
-        <v>15</v>
-      </c>
+      <c r="A262" s="1"/>
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
+      <c r="E262" s="2"/>
     </row>
     <row r="263" spans="1:5" ht="15" customHeight="1">
-      <c r="A263" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D263" s="2">
-        <v>31</v>
-      </c>
-      <c r="E263" s="2">
-        <v>13</v>
-      </c>
+      <c r="A263" s="1"/>
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
     </row>
     <row r="264" spans="1:5" ht="15" customHeight="1">
-      <c r="A264" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D264" s="2">
-        <v>30</v>
-      </c>
-      <c r="E264" s="2">
-        <v>22</v>
-      </c>
+      <c r="A264" s="1"/>
+      <c r="B264" s="2"/>
+      <c r="C264" s="2"/>
+      <c r="D264" s="2"/>
+      <c r="E264" s="2"/>
     </row>
     <row r="265" spans="1:5" ht="15" customHeight="1">
-      <c r="A265" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D265" s="2">
-        <v>41</v>
-      </c>
-      <c r="E265" s="2">
-        <v>28</v>
-      </c>
+      <c r="A265" s="1"/>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
     </row>
     <row r="266" spans="1:5" ht="15" customHeight="1">
-      <c r="A266" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D266" s="2">
-        <v>20</v>
-      </c>
-      <c r="E266" s="2">
-        <v>14</v>
-      </c>
+      <c r="A266" s="1"/>
+      <c r="B266" s="2"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="2"/>
+      <c r="E266" s="2"/>
     </row>
     <row r="267" spans="1:5" ht="15" customHeight="1">
-      <c r="A267" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D267" s="2">
-        <v>26</v>
-      </c>
-      <c r="E267" s="2">
-        <v>23</v>
-      </c>
+      <c r="A267" s="1"/>
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="2"/>
+      <c r="E267" s="2"/>
     </row>
     <row r="268" spans="1:5" ht="15" customHeight="1">
-      <c r="A268" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D268" s="2">
-        <v>37</v>
-      </c>
-      <c r="E268" s="2">
-        <v>31</v>
-      </c>
+      <c r="A268" s="1"/>
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
     </row>
     <row r="269" spans="1:5" ht="15" customHeight="1">
-      <c r="A269" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D269" s="2">
-        <v>13</v>
-      </c>
-      <c r="E269" s="2">
-        <v>3</v>
-      </c>
+      <c r="A269" s="1"/>
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="2"/>
+      <c r="E269" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
